--- a/data/trans_camb/P2404-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2404-Estudios-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2404-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2404-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,5</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,1; 1,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,35; 2,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 0,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,43; 0,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,61; 0,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,21; 1,18</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,3%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,52%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,2%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,24%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,29%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-47,04; 105,34</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-16,42; 186,33</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,08; 521,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,59; 83,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,77; 157,73</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,31</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 1,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,23; 0,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,14; 0,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 0,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,81; 0,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,97; 0,33</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,72%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,65%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,86%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,72%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,58; 59,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,62; 36,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,31; 39,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,76; 35,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,3; 37,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,46; 19,31</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,56</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,78; 1,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,38; 1,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,35; -0,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,81; 0,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,95; 0,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,62; 0,49</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,9%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,61%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-79,33%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-56,05%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,08%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,1%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,67; 210,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,84; 245,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -1,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,43; 64,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,23; 23,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,05; 50,33</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,05</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,61; 0,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,56; 0,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; -0,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 0,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,58; 0,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 0,34</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,94%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,69%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,11%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,23%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,12; 51,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,52; 47,13</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,11; -8,58</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,46; 25,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,67; 19,31</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,55; 25,18</t>
         </is>
       </c>
     </row>
